--- a/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.17010076790456002, 0.010706161581064667, 0.03717522595810434, 0.017287988258759334, -0.052919377798628646, 0.10802663114565386, 0.254868183895977, 0.08788936227154939, -0.04302368268070455, -0.0033739226686931504, 0.0037877225469762996, -0.05003684191673645, 0.09208468422852623, 0.23484164540068314, 0.05328825968606437, -0.0710543490897814, -0.016102352282465236, -0.01571954214061154, -0.03592944028630505]</t>
+    <t>[1.0, 0.16666484744293045, 0.026888590862929895, 0.011586570939146721, 0.013439068188339546, -0.04388511630743954, 0.10310668537439181, 0.22375879637338877, 0.07125787748016232, -0.041473969659244964, -0.031453325315431914, -0.03366932283278228, -0.06763654787599654, 0.09154620980393374, 0.2013496382853902, 0.04136405623942855, -0.05135151979186593, -0.027021277824181324, -0.015006708274903698, -0.04329592805606688]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.1677044748924979, 0.008683634589049218, 0.03442552396094724, 0.015310570794049334, -0.05325621351830622, 0.10735261046526622, 0.2514731834790395, 0.08727851971451552, -0.04451823269005174, -0.004002530847665953, 0.004521748815596559, -0.0499305570245723, 0.09126907797189042, 0.23216408560972449, 0.05312699460311114, -0.07065742628160213, -0.017207026597119483, -0.015099095334449716, -0.034541823793790845]</t>
+    <t>[0.9999999999999998, 0.16683640515536963, 0.029010434742807067, 0.010778014251443384, 0.007609802789236635, -0.04383622131140616, 0.10067858761429775, 0.21987930309605272, 0.07271597068785325, -0.043964385122186526, -0.033929523200823826, -0.036308186342196416, -0.06704920927135136, 0.0890182628218022, 0.20014405908826363, 0.04096481749374034, -0.05156274633814644, -0.03025149312566355, -0.01516062450994968, -0.04222097851607758]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>22841.2472105133</v>
+        <v>13036.3733693968</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.028490980480218</v>
+        <v>-0.8471131810676074</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1078021605665619</v>
+        <v>0.1313170304116882</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>35985.49555355266</v>
+        <v>31135.10500681926</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9104963384865744</v>
+        <v>0.985854189336235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-4.863491300520318</v>
+        <v>-15.39084058107468</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.02830574927192976</v>
+        <v>-0.06167806106399603</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>35124.73483759602</v>
+        <v>28767.99384543934</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>5.497741303112915</v>
+        <v>-3.51249155586502</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.1063036189697222</v>
+        <v>0.2141775960811582</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>36791.43935766975</v>
+        <v>33375.61582050646</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.16666484744293045, 0.026888590862929895, 0.011586570939146721, 0.013439068188339546, -0.04388511630743954, 0.10310668537439181, 0.22375879637338877, 0.07125787748016232, -0.041473969659244964, -0.031453325315431914, -0.03366932283278228, -0.06763654787599654, 0.09154620980393374, 0.2013496382853902, 0.04136405623942855, -0.05135151979186593, -0.027021277824181324, -0.015006708274903698, -0.04329592805606688]</t>
+    <t>[1.0, 0.16405946202754063, 0.01992185860063315, 0.0008635681168387822, 0.004764298106171536, -0.050784052872094844, 0.10197142096963326, 0.22066897480243294, 0.07162675330864138, -0.04330517020340959, -0.03361440332166738, -0.03477593103295779, -0.06791268024199044, 0.09041901999835533, 0.19967688661231706, 0.042131623848433324, -0.050844573429099316, -0.02872307657753268, -0.017024791230251704, -0.04174144178641617]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.16683640515536963, 0.029010434742807067, 0.010778014251443384, 0.007609802789236635, -0.04383622131140616, 0.10067858761429775, 0.21987930309605272, 0.07271597068785325, -0.043964385122186526, -0.033929523200823826, -0.036308186342196416, -0.06704920927135136, 0.0890182628218022, 0.20014405908826363, 0.04096481749374034, -0.05156274633814644, -0.03025149312566355, -0.01516062450994968, -0.04222097851607758]</t>
+    <t>[0.9999999999999998, 0.1623576935663242, 0.02528190233573785, 0.0020282920221196253, 0.0029338757908369205, -0.04860922856308539, 0.09946308139233911, 0.21666984135919679, 0.07023577912713212, -0.04336960841539495, -0.03582757883235821, -0.03725052119477187, -0.06619565848038352, 0.08881236194204344, 0.19697301548465157, 0.04036484105107803, -0.05152728265936613, -0.02908167763294477, -0.015629050060204364, -0.0409388379107304]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.8471131810676074</v>
+        <v>-0.8033749316793535</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1313170304116882</v>
+        <v>23.98165683982647</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>31135.10500681926</v>
+        <v>31091.73189788084</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-15.39084058107468</v>
+        <v>-12.1669023512251</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.06167806106399603</v>
+        <v>-1.527546859343692</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>28767.99384543934</v>
+        <v>28780.35391094684</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-3.51249155586502</v>
+        <v>-10.79778203648345</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.2141775960811582</v>
+        <v>46.84307201573333</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>33375.61582050646</v>
+        <v>33313.94580697861</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.16626984659018662, 0.0019021364894175959, 0.028297776891699124, 0.011764510939763339, -0.05780500801956391, 0.10729977311973223, 0.25382166774871656, 0.08749721867239446, -0.04563042615687403, -0.0063893599097226425, 0.002987164014351649, -0.05222494322435975, 0.0908277583260426, 0.2338855053086371, 0.05346083156070051, -0.07225062297820163, -0.018868153070987898, -0.017584137886225294, -0.0348086944460477]</t>
+    <t>[1.0, 0.17010076790456002, 0.010706161581064667, 0.03717522595810434, 0.017287988258759334, -0.052919377798628646, 0.10802663114565386, 0.254868183895977, 0.08788936227154939, -0.04302368268070455, -0.0033739226686931504, 0.0037877225469762996, -0.05003684191673645, 0.09208468422852623, 0.23484164540068314, 0.05328825968606437, -0.0710543490897814, -0.016102352282465236, -0.01571954214061154, -0.03592944028630505]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.16584287478097473, 0.0027305729629644986, 0.02794462733285238, 0.010569012361092782, -0.0573130069504199, 0.10666634534316406, 0.25215301332031775, 0.08716286098616344, -0.04641988615942819, -0.006587496062104616, 0.003404232893211286, -0.05167321562265531, 0.09095370274770628, 0.23293812575325398, 0.05366085501722512, -0.07218431323800775, -0.018836342427681535, -0.016825636379642912, -0.03446984289504158]</t>
+    <t>[1.0, 0.1677044748924979, 0.008683634589049218, 0.03442552396094724, 0.015310570794049334, -0.05325621351830622, 0.10735261046526622, 0.2514731834790395, 0.08727851971451552, -0.04451823269005174, -0.004002530847665953, 0.004521748815596559, -0.0499305570245723, 0.09126907797189042, 0.23216408560972449, 0.05312699460311114, -0.07065742628160213, -0.017207026597119483, -0.015099095334449716, -0.034541823793790845]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.017658307896322</v>
+        <v>3.028490980480218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>19.16896673332682</v>
+        <v>0.1078021605665619</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>35977.23417449502</v>
+        <v>35985.49555355266</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-5.466874956559025</v>
+        <v>-4.863491300520318</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2.872399433637109</v>
+        <v>0.02830574927192976</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>35127.34010214316</v>
+        <v>35124.73483759602</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2.417329533185856</v>
+        <v>5.497741303112915</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>23.07926948302897</v>
+        <v>0.1063036189697222</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>36781.56455777377</v>
+        <v>36791.43935766975</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/nickel-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.17010076790456002, 0.010706161581064667, 0.03717522595810434, 0.017287988258759334, -0.052919377798628646, 0.10802663114565386, 0.254868183895977, 0.08788936227154939, -0.04302368268070455, -0.0033739226686931504, 0.0037877225469762996, -0.05003684191673645, 0.09208468422852623, 0.23484164540068314, 0.05328825968606437, -0.0710543490897814, -0.016102352282465236, -0.01571954214061154, -0.03592944028630505]</t>
+    <t>[0.9999999999999998, 0.17010076790456002, 0.010706161581064678, 0.03717522595810434, 0.017287988258759317, -0.05291937779862865, 0.10802663114565386, 0.25486818389597693, 0.08788936227154936, -0.04302368268070452, -0.0033739226686931483, 0.003787722546976335, -0.05003684191673641, 0.09208468422852621, 0.2348416454006831, 0.0532882596860644, -0.07105434908978141, -0.016102352282465236, -0.015719542140611532, -0.03592944028630504]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.1677044748924979, 0.008683634589049218, 0.03442552396094724, 0.015310570794049334, -0.05325621351830622, 0.10735261046526622, 0.2514731834790395, 0.08727851971451552, -0.04451823269005174, -0.004002530847665953, 0.004521748815596559, -0.0499305570245723, 0.09126907797189042, 0.23216408560972449, 0.05312699460311114, -0.07065742628160213, -0.017207026597119483, -0.015099095334449716, -0.034541823793790845]</t>
+    <t>[1.0, 0.16770447489249787, 0.008683634589049225, 0.03442552396094725, 0.015310570794049315, -0.05325621351830621, 0.10735261046526619, 0.2514731834790395, 0.08727851971451554, -0.04451823269005173, -0.0040025308476659485, 0.004521748815596575, -0.04993055702457228, 0.0912690779718904, 0.23216408560972449, 0.053126994603111086, -0.07065742628160208, -0.017207026597119476, -0.015099095334449709, -0.03454182379379081]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3.028490980480218</v>
+        <v>3.028490980480216</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>35985.49555355266</v>
+        <v>35985.49555355264</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9104963384865744</v>
+        <v>0.4765758091993186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-4.863491300520318</v>
+        <v>-4.863491300520315</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.02830574927192976</v>
+        <v>0.0283057492719298</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>35124.73483759602</v>
+        <v>35124.73483759601</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>5.497741303112915</v>
+        <v>5.49774130311292</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.1063036189697222</v>
+        <v>0.1063036189697224</v>
       </c>
     </row>
     <row r="9" spans="1:2">
